--- a/Home assignment 2/1_cd.xlsx
+++ b/Home assignment 2/1_cd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Niclas Lövdahl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\ETS061-Simulation\Home assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1734,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2443,7 +2443,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
